--- a/excel/08.xlsx
+++ b/excel/08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272BCF27-26C9-4AA0-B8E0-141BD336F203}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3591FA8-B9A2-48F8-98A7-FAD792F681BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="340" windowWidth="20610" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="340" windowWidth="20610" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -824,37 +824,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>↑相関係数=合計/英語の標準偏差/数学の標準偏差</t>
-    <rPh sb="1" eb="3">
-      <t>ソウカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>エイゴ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンサ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>スウガク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>↑=CORREL(A158:A167,B158:B167)で一発で求められる．</t>
     <rPh sb="30" eb="32">
       <t>イッパツ</t>
@@ -1296,6 +1265,37 @@
   </si>
   <si>
     <t>https://youtu.be/xN47aLFgiKg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑相関係数=平均/英語の標準偏差/数学の標準偏差</t>
+    <rPh sb="1" eb="3">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>スウガク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンサ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2638,10 +2638,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1">
         <f>E102</f>
@@ -2926,7 +2926,7 @@
         <v>62</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3719,12 +3719,12 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3767,7 +3767,7 @@
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="G158" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -3781,7 +3781,7 @@
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="G159" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3795,7 +3795,7 @@
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="G160" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3898,7 +3898,7 @@
         <v>80</v>
       </c>
       <c r="E171" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3906,12 +3906,12 @@
     </row>
     <row r="173" spans="1:5">
       <c r="E173" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4009,45 +4009,45 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
+        <v>95</v>
+      </c>
+      <c r="B198" t="s">
         <v>96</v>
-      </c>
-      <c r="B198" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4151,12 +4151,12 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
